--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H2">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I2">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J2">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N2">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O2">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P2">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q2">
-        <v>2.632493010935</v>
+        <v>4.6488487901715</v>
       </c>
       <c r="R2">
-        <v>10.52997204374</v>
+        <v>18.595395160686</v>
       </c>
       <c r="S2">
-        <v>0.006566475578287918</v>
+        <v>0.01432228202109877</v>
       </c>
       <c r="T2">
-        <v>0.003298058446631444</v>
+        <v>0.007567290206006101</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H3">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I3">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J3">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.183792</v>
       </c>
       <c r="O3">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P3">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q3">
-        <v>42.26712134157334</v>
+        <v>49.389496709168</v>
       </c>
       <c r="R3">
-        <v>253.60272804944</v>
+        <v>296.336980255008</v>
       </c>
       <c r="S3">
-        <v>0.10543086682513</v>
+        <v>0.1521603159570045</v>
       </c>
       <c r="T3">
-        <v>0.07943008925930294</v>
+        <v>0.1205926472109679</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H4">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I4">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J4">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N4">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O4">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P4">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q4">
-        <v>7.4230456885575</v>
+        <v>11.850893611686</v>
       </c>
       <c r="R4">
-        <v>29.69218275423</v>
+        <v>47.403574446744</v>
       </c>
       <c r="S4">
-        <v>0.01851600290217514</v>
+        <v>0.03651051005733896</v>
       </c>
       <c r="T4">
-        <v>0.009299792413953222</v>
+        <v>0.01929061477536752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.651035</v>
+        <v>20.625387</v>
       </c>
       <c r="H5">
-        <v>35.30207</v>
+        <v>41.250774</v>
       </c>
       <c r="I5">
-        <v>0.132594799318665</v>
+        <v>0.2032696055682915</v>
       </c>
       <c r="J5">
-        <v>0.09359607745031152</v>
+        <v>0.1476696866573555</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N5">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O5">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P5">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q5">
-        <v>0.8344526796250001</v>
+        <v>0.08974793396599999</v>
       </c>
       <c r="R5">
-        <v>5.00671607775</v>
+        <v>0.538487603796</v>
       </c>
       <c r="S5">
-        <v>0.002081454013071934</v>
+        <v>0.0002764975328493275</v>
       </c>
       <c r="T5">
-        <v>0.00156813733042391</v>
+        <v>0.0002191344650140169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>105.757912</v>
       </c>
       <c r="I6">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J6">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N6">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O6">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P6">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q6">
-        <v>5.257613584530667</v>
+        <v>7.945750565428</v>
       </c>
       <c r="R6">
-        <v>31.545681507184</v>
+        <v>47.674503392568</v>
       </c>
       <c r="S6">
-        <v>0.01311456139085182</v>
+        <v>0.0244794540764503</v>
       </c>
       <c r="T6">
-        <v>0.009880320756536515</v>
+        <v>0.0194008677676025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>105.757912</v>
       </c>
       <c r="I7">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J7">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>7.183792</v>
       </c>
       <c r="O7">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P7">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q7">
         <v>84.41587135136712</v>
@@ -889,10 +889,10 @@
         <v>759.7428421623041</v>
       </c>
       <c r="S7">
-        <v>0.2105664688742201</v>
+        <v>0.2600703897074849</v>
       </c>
       <c r="T7">
-        <v>0.2379565954641613</v>
+        <v>0.3091730247675979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>105.757912</v>
       </c>
       <c r="I8">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J8">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N8">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O8">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P8">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q8">
-        <v>14.825302741028</v>
+        <v>20.255389853712</v>
       </c>
       <c r="R8">
-        <v>88.951816446168</v>
+        <v>121.532339122272</v>
       </c>
       <c r="S8">
-        <v>0.03698015074885568</v>
+        <v>0.0624032785375804</v>
       </c>
       <c r="T8">
-        <v>0.02786031039350192</v>
+        <v>0.049456893580693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>105.757912</v>
       </c>
       <c r="I9">
-        <v>0.2648182598168894</v>
+        <v>0.3474257082297993</v>
       </c>
       <c r="J9">
-        <v>0.2803950511268952</v>
+        <v>0.378592598688601</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N9">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O9">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P9">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q9">
-        <v>1.666568429933333</v>
+        <v>0.1533959759164444</v>
       </c>
       <c r="R9">
-        <v>14.9991158694</v>
+        <v>1.380563783248</v>
       </c>
       <c r="S9">
-        <v>0.004157078802961761</v>
+        <v>0.0004725859082837458</v>
       </c>
       <c r="T9">
-        <v>0.00469782451269534</v>
+        <v>0.0005618125727075927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H10">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I10">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J10">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N10">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O10">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P10">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q10">
-        <v>4.424287849321333</v>
+        <v>2.297090916768</v>
       </c>
       <c r="R10">
-        <v>26.545727095928</v>
+        <v>13.782545500608</v>
       </c>
       <c r="S10">
-        <v>0.01103591842151403</v>
+        <v>0.007076931391619196</v>
       </c>
       <c r="T10">
-        <v>0.008314301225780182</v>
+        <v>0.005608728434074148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H11">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I11">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J11">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>7.183792</v>
       </c>
       <c r="O11">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P11">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q11">
-        <v>71.03605236577422</v>
+        <v>24.40435673326934</v>
       </c>
       <c r="R11">
-        <v>639.3244712919679</v>
+        <v>219.639210599424</v>
       </c>
       <c r="S11">
-        <v>0.177191924575011</v>
+        <v>0.0751855126835583</v>
       </c>
       <c r="T11">
-        <v>0.2002407474515722</v>
+        <v>0.08938092645311753</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H12">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I12">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J12">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N12">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O12">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P12">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q12">
-        <v>12.475509225826</v>
+        <v>5.855768019072001</v>
       </c>
       <c r="R12">
-        <v>74.853055354956</v>
+        <v>35.13460811443201</v>
       </c>
       <c r="S12">
-        <v>0.03111883918316498</v>
+        <v>0.01804058699362129</v>
       </c>
       <c r="T12">
-        <v>0.02344448308543669</v>
+        <v>0.01429782876775368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.66513466666666</v>
+        <v>10.191424</v>
       </c>
       <c r="H13">
-        <v>88.99540399999999</v>
+        <v>30.574272</v>
       </c>
       <c r="I13">
-        <v>0.2228448687506334</v>
+        <v>0.100439654133967</v>
       </c>
       <c r="J13">
-        <v>0.2359527564674186</v>
+        <v>0.1094499018616416</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N13">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O13">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P13">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q13">
-        <v>1.402419241366667</v>
+        <v>0.04434628296533333</v>
       </c>
       <c r="R13">
-        <v>12.6217731723</v>
+        <v>0.3991165466880001</v>
       </c>
       <c r="S13">
-        <v>0.003498186570943442</v>
+        <v>0.0001366230651682524</v>
       </c>
       <c r="T13">
-        <v>0.003953224704629426</v>
+        <v>0.000162418206696268</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H14">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I14">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J14">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N14">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O14">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P14">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q14">
-        <v>0.6763003713875001</v>
+        <v>0.9994229921197501</v>
       </c>
       <c r="R14">
-        <v>2.70520148555</v>
+        <v>3.997691968479</v>
       </c>
       <c r="S14">
-        <v>0.001686959795849851</v>
+        <v>0.003079045715956998</v>
       </c>
       <c r="T14">
-        <v>0.0008472873975541207</v>
+        <v>0.00162683798963616</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H15">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I15">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J15">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.183792</v>
       </c>
       <c r="O15">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P15">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q15">
-        <v>10.85863086513334</v>
+        <v>10.61789720601867</v>
       </c>
       <c r="R15">
-        <v>65.15178519080001</v>
+        <v>63.70738323611201</v>
       </c>
       <c r="S15">
-        <v>0.02708570700600505</v>
+        <v>0.03271186590907077</v>
       </c>
       <c r="T15">
-        <v>0.02040597967108344</v>
+        <v>0.02592535695246408</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H16">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I16">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J16">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N16">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O16">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P16">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q16">
-        <v>1.90701686011875</v>
+        <v>2.547739469979</v>
       </c>
       <c r="R16">
-        <v>7.628067440475001</v>
+        <v>10.190957879916</v>
       </c>
       <c r="S16">
-        <v>0.004756851998214962</v>
+        <v>0.00784913531334234</v>
       </c>
       <c r="T16">
-        <v>0.002389162302523779</v>
+        <v>0.004147152297013306</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.534637500000001</v>
+        <v>4.4341055</v>
       </c>
       <c r="H17">
-        <v>9.069275000000001</v>
+        <v>8.868211000000001</v>
       </c>
       <c r="I17">
-        <v>0.03406425454911809</v>
+        <v>0.04369948917967902</v>
       </c>
       <c r="J17">
-        <v>0.02404529154574149</v>
+        <v>0.03174645740177659</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N17">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O17">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P17">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q17">
-        <v>0.2143749878125001</v>
+        <v>0.01929427106566666</v>
       </c>
       <c r="R17">
-        <v>1.286249926875</v>
+        <v>0.115765626394</v>
       </c>
       <c r="S17">
-        <v>0.0005347357490482277</v>
+        <v>5.944224130890897E-05</v>
       </c>
       <c r="T17">
-        <v>0.0004028621745801395</v>
+        <v>4.711016266304287E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H18">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I18">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J18">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N18">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O18">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P18">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q18">
-        <v>1.957290242737</v>
+        <v>1.5063822925045</v>
       </c>
       <c r="R18">
-        <v>11.743741456422</v>
+        <v>9.038293755026999</v>
       </c>
       <c r="S18">
-        <v>0.004882253637584714</v>
+        <v>0.004640897778919332</v>
       </c>
       <c r="T18">
-        <v>0.003678219234060939</v>
+        <v>0.003678082192951836</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H19">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I19">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J19">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>7.183792</v>
       </c>
       <c r="O19">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P19">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q19">
-        <v>31.42611351551467</v>
+        <v>16.00384668042845</v>
       </c>
       <c r="R19">
-        <v>282.835021639632</v>
+        <v>144.034620123856</v>
       </c>
       <c r="S19">
-        <v>0.07838911862745537</v>
+        <v>0.04930502494813681</v>
       </c>
       <c r="T19">
-        <v>0.08858584127735868</v>
+        <v>0.05861406873963175</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H20">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I20">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J20">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N20">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O20">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P20">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q20">
-        <v>5.519123825686499</v>
+        <v>3.840085383018</v>
       </c>
       <c r="R20">
-        <v>33.114742954119</v>
+        <v>23.040512298108</v>
       </c>
       <c r="S20">
-        <v>0.01376687104747349</v>
+        <v>0.01183062481123502</v>
       </c>
       <c r="T20">
-        <v>0.01037176141154036</v>
+        <v>0.009376205321167464</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.123757</v>
+        <v>6.683314333333333</v>
       </c>
       <c r="H21">
-        <v>39.371271</v>
+        <v>20.049943</v>
       </c>
       <c r="I21">
-        <v>0.09858582942710863</v>
+        <v>0.06586614197472153</v>
       </c>
       <c r="J21">
-        <v>0.1043847153958169</v>
+        <v>0.07177486658329946</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N21">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O21">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P21">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q21">
-        <v>0.620425612175</v>
+        <v>0.02908132843577777</v>
       </c>
       <c r="R21">
-        <v>5.583830509575001</v>
+        <v>0.261731955922</v>
       </c>
       <c r="S21">
-        <v>0.00154758611459503</v>
+        <v>8.959443643036684E-05</v>
       </c>
       <c r="T21">
-        <v>0.001748893472856869</v>
+        <v>0.0001065103295483991</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H22">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I22">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J22">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N22">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O22">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P22">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q22">
-        <v>4.905682086873999</v>
+        <v>5.4728631332535</v>
       </c>
       <c r="R22">
-        <v>29.434092521244</v>
+        <v>32.837178799521</v>
       </c>
       <c r="S22">
-        <v>0.01223670546683097</v>
+        <v>0.01686092467086657</v>
       </c>
       <c r="T22">
-        <v>0.009218956807803765</v>
+        <v>0.01336290298621003</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H23">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I23">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J23">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>7.183792</v>
       </c>
       <c r="O23">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P23">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q23">
-        <v>78.76528414996267</v>
+        <v>58.14384762976533</v>
       </c>
       <c r="R23">
-        <v>708.887557349664</v>
+        <v>523.294628667888</v>
       </c>
       <c r="S23">
-        <v>0.196471676330847</v>
+        <v>0.1791309249089543</v>
       </c>
       <c r="T23">
-        <v>0.2220283763829069</v>
+        <v>0.212951770271927</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H24">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I24">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J24">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N24">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O24">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P24">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q24">
-        <v>13.832934071673</v>
+        <v>13.951479532014</v>
       </c>
       <c r="R24">
-        <v>82.997604430038</v>
+        <v>83.708877192084</v>
       </c>
       <c r="S24">
-        <v>0.03450479199010128</v>
+        <v>0.0429820442625582</v>
       </c>
       <c r="T24">
-        <v>0.02599541092831234</v>
+        <v>0.0340648510589681</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.892914</v>
+        <v>24.281263</v>
       </c>
       <c r="H25">
-        <v>98.678742</v>
+        <v>72.843789</v>
       </c>
       <c r="I25">
-        <v>0.2470919881375854</v>
+        <v>0.2392994009135417</v>
       </c>
       <c r="J25">
-        <v>0.2616261080138164</v>
+        <v>0.2607664888073256</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N25">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O25">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P25">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q25">
-        <v>1.55501250935</v>
+        <v>0.1056558690673333</v>
       </c>
       <c r="R25">
-        <v>13.99511258415</v>
+        <v>0.950902821606</v>
       </c>
       <c r="S25">
-        <v>0.003878814349806116</v>
+        <v>0.0003255070711626241</v>
       </c>
       <c r="T25">
-        <v>0.004383363894793413</v>
+        <v>0.0003869644902204483</v>
       </c>
     </row>
   </sheetData>
